--- a/InputData/io-model/BEbIC/BAU Employment by ISIC Code.xlsx
+++ b/InputData/io-model/BEbIC/BAU Employment by ISIC Code.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="9765" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -457,16 +457,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -478,9 +477,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -493,7 +494,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1085,7 +1085,7 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
     <col width="77.5" customWidth="1" min="2" max="2"/>
   </cols>
@@ -1096,7 +1096,7 @@
           <t>BEbIC BAU Employment by ISIC Code</t>
         </is>
       </c>
-      <c r="C1" s="56" t="n">
+      <c r="C1" s="38" t="n">
         <v>44307</v>
       </c>
     </row>
@@ -1256,18 +1256,18 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="13"/>
   <cols>
     <col width="27.5" customWidth="1" style="6" min="1" max="1"/>
     <col width="2.5" customWidth="1" style="6" min="2" max="2"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="4" max="53"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="4" max="53"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="54" max="54"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="55" max="55"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="55" max="55"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="56" max="56"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="57" max="57"/>
-    <col width="9.1640625" customWidth="1" style="6" min="58" max="61"/>
-    <col width="9.1640625" customWidth="1" style="6" min="62" max="16384"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="57" max="57"/>
+    <col width="9.1796875" customWidth="1" style="6" min="58" max="61"/>
+    <col width="9.1796875" customWidth="1" style="6" min="62" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -1289,13 +1289,13 @@
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="43" t="inlineStr">
+      <c r="A3" s="39" t="inlineStr">
         <is>
           <t>Indicator</t>
         </is>
       </c>
-      <c r="B3" s="39" t="n"/>
-      <c r="C3" s="51" t="inlineStr">
+      <c r="B3" s="40" t="n"/>
+      <c r="C3" s="41" t="inlineStr">
         <is>
           <t>EMPN: Employment</t>
         </is>
@@ -1353,16 +1353,16 @@
       <c r="BB3" s="42" t="n"/>
       <c r="BC3" s="42" t="n"/>
       <c r="BD3" s="42" t="n"/>
-      <c r="BE3" s="39" t="n"/>
+      <c r="BE3" s="40" t="n"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="43" t="inlineStr">
+      <c r="A4" s="39" t="inlineStr">
         <is>
           <t>Partner</t>
         </is>
       </c>
-      <c r="B4" s="39" t="n"/>
-      <c r="C4" s="44" t="inlineStr">
+      <c r="B4" s="40" t="n"/>
+      <c r="C4" s="43" t="inlineStr">
         <is>
           <t>WLD: World</t>
         </is>
@@ -1420,16 +1420,16 @@
       <c r="BB4" s="42" t="n"/>
       <c r="BC4" s="42" t="n"/>
       <c r="BD4" s="42" t="n"/>
-      <c r="BE4" s="39" t="n"/>
+      <c r="BE4" s="40" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="43" t="inlineStr">
+      <c r="A5" s="39" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B5" s="39" t="n"/>
-      <c r="C5" s="44" t="inlineStr">
+      <c r="B5" s="40" t="n"/>
+      <c r="C5" s="43" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
@@ -1487,16 +1487,16 @@
       <c r="BB5" s="42" t="n"/>
       <c r="BC5" s="42" t="n"/>
       <c r="BD5" s="42" t="n"/>
-      <c r="BE5" s="39" t="n"/>
+      <c r="BE5" s="40" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="43" t="inlineStr">
+      <c r="A6" s="39" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="B6" s="39" t="n"/>
-      <c r="C6" s="44" t="inlineStr">
+      <c r="B6" s="40" t="n"/>
+      <c r="C6" s="43" t="inlineStr">
         <is>
           <t>Persons, Thousands</t>
         </is>
@@ -1554,21 +1554,21 @@
       <c r="BB6" s="42" t="n"/>
       <c r="BC6" s="42" t="n"/>
       <c r="BD6" s="42" t="n"/>
-      <c r="BE6" s="39" t="n"/>
+      <c r="BE6" s="40" t="n"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="45" t="inlineStr">
+      <c r="A7" s="44" t="inlineStr">
         <is>
           <t>Industry</t>
         </is>
       </c>
-      <c r="B7" s="46" t="n"/>
-      <c r="C7" s="38" t="inlineStr">
+      <c r="B7" s="45" t="n"/>
+      <c r="C7" s="50" t="inlineStr">
         <is>
           <t>DTOTAL: TOTAL</t>
         </is>
       </c>
-      <c r="D7" s="38" t="inlineStr">
+      <c r="D7" s="50" t="inlineStr">
         <is>
           <t>DTOTAL: TOTAL</t>
         </is>
@@ -1625,35 +1625,35 @@
       <c r="BB7" s="42" t="n"/>
       <c r="BC7" s="42" t="n"/>
       <c r="BD7" s="42" t="n"/>
-      <c r="BE7" s="39" t="n"/>
+      <c r="BE7" s="40" t="n"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="47" t="n"/>
-      <c r="B8" s="48" t="n"/>
-      <c r="C8" s="41" t="n"/>
-      <c r="D8" s="38" t="inlineStr">
+      <c r="A8" s="46" t="n"/>
+      <c r="B8" s="47" t="n"/>
+      <c r="C8" s="51" t="n"/>
+      <c r="D8" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">  D01T03: Agriculture, forestry and fishing</t>
         </is>
       </c>
-      <c r="E8" s="38" t="inlineStr">
+      <c r="E8" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">  D05T09: Mining and quarrying</t>
         </is>
       </c>
-      <c r="F8" s="38" t="inlineStr">
+      <c r="F8" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">  D05T09: Mining and quarrying</t>
         </is>
       </c>
       <c r="G8" s="42" t="n"/>
-      <c r="H8" s="39" t="n"/>
-      <c r="I8" s="38" t="inlineStr">
+      <c r="H8" s="40" t="n"/>
+      <c r="I8" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">  D10T33: Manufacturing</t>
         </is>
       </c>
-      <c r="J8" s="38" t="inlineStr">
+      <c r="J8" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">  D10T33: Manufacturing</t>
         </is>
@@ -1677,23 +1677,23 @@
       <c r="AA8" s="42" t="n"/>
       <c r="AB8" s="42" t="n"/>
       <c r="AC8" s="42" t="n"/>
-      <c r="AD8" s="39" t="n"/>
-      <c r="AE8" s="38" t="inlineStr">
+      <c r="AD8" s="40" t="n"/>
+      <c r="AE8" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">  D35T39: Electricity, gas, water supply, sewerage, waste and remediation services</t>
         </is>
       </c>
-      <c r="AF8" s="38" t="inlineStr">
+      <c r="AF8" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">  D41T43: Construction</t>
         </is>
       </c>
-      <c r="AG8" s="38" t="inlineStr">
+      <c r="AG8" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">  D45T82: Total business sector services</t>
         </is>
       </c>
-      <c r="AH8" s="38" t="inlineStr">
+      <c r="AH8" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">  D45T82: Total business sector services</t>
         </is>
@@ -1707,13 +1707,13 @@
       <c r="AO8" s="42" t="n"/>
       <c r="AP8" s="42" t="n"/>
       <c r="AQ8" s="42" t="n"/>
-      <c r="AR8" s="39" t="n"/>
-      <c r="AS8" s="38" t="inlineStr">
+      <c r="AR8" s="40" t="n"/>
+      <c r="AS8" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">  D84T98: Public admin, education and health; social and personal services</t>
         </is>
       </c>
-      <c r="AT8" s="38" t="inlineStr">
+      <c r="AT8" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">  D84T98: Public admin, education and health; social and personal services</t>
         </is>
@@ -1723,354 +1723,354 @@
       <c r="AW8" s="42" t="n"/>
       <c r="AX8" s="42" t="n"/>
       <c r="AY8" s="42" t="n"/>
-      <c r="AZ8" s="39" t="n"/>
-      <c r="BA8" s="38" t="inlineStr">
+      <c r="AZ8" s="40" t="n"/>
+      <c r="BA8" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">  D05T39: Industry (mining, manufactures and utilities)</t>
         </is>
       </c>
-      <c r="BB8" s="38" t="inlineStr">
+      <c r="BB8" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">  D45T98: Total services</t>
         </is>
       </c>
-      <c r="BC8" s="38" t="inlineStr">
+      <c r="BC8" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">  D58T82: Information, finance, real estate and other business services</t>
         </is>
       </c>
-      <c r="BD8" s="38" t="inlineStr">
+      <c r="BD8" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">  D41T98: Total services (incl. construction)</t>
         </is>
       </c>
-      <c r="BE8" s="38" t="inlineStr">
+      <c r="BE8" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">  DINFO: Information industries</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="47" t="n"/>
-      <c r="B9" s="48" t="n"/>
-      <c r="C9" s="41" t="n"/>
-      <c r="D9" s="41" t="n"/>
-      <c r="E9" s="41" t="n"/>
-      <c r="F9" s="38" t="inlineStr">
+      <c r="A9" s="46" t="n"/>
+      <c r="B9" s="47" t="n"/>
+      <c r="C9" s="51" t="n"/>
+      <c r="D9" s="51" t="n"/>
+      <c r="E9" s="51" t="n"/>
+      <c r="F9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D05T06: Mining and extraction of energy producing products</t>
         </is>
       </c>
-      <c r="G9" s="38" t="inlineStr">
+      <c r="G9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D07T08: Mining and quarrying of non-energy producing products</t>
         </is>
       </c>
-      <c r="H9" s="38" t="inlineStr">
+      <c r="H9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D09: Mining support service activities</t>
         </is>
       </c>
-      <c r="I9" s="41" t="n"/>
-      <c r="J9" s="38" t="inlineStr">
+      <c r="I9" s="51" t="n"/>
+      <c r="J9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D10T12: Food products, beverages and tobacco</t>
         </is>
       </c>
-      <c r="K9" s="38" t="inlineStr">
+      <c r="K9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D13T15: Textiles, wearing apparel, leather and related products</t>
         </is>
       </c>
-      <c r="L9" s="38" t="inlineStr">
+      <c r="L9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D16T18: Wood and paper products; printing</t>
         </is>
       </c>
-      <c r="M9" s="38" t="inlineStr">
+      <c r="M9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D16T18: Wood and paper products; printing</t>
         </is>
       </c>
-      <c r="N9" s="39" t="n"/>
-      <c r="O9" s="38" t="inlineStr">
+      <c r="N9" s="40" t="n"/>
+      <c r="O9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D19T23: Chemicals and non-metallic mineral products</t>
         </is>
       </c>
-      <c r="P9" s="38" t="inlineStr">
+      <c r="P9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D19T23: Chemicals and non-metallic mineral products</t>
         </is>
       </c>
       <c r="Q9" s="42" t="n"/>
       <c r="R9" s="42" t="n"/>
-      <c r="S9" s="39" t="n"/>
-      <c r="T9" s="38" t="inlineStr">
+      <c r="S9" s="40" t="n"/>
+      <c r="T9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D24T25: Basic metals and fabricated metal products</t>
         </is>
       </c>
-      <c r="U9" s="38" t="inlineStr">
+      <c r="U9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D24T25: Basic metals and fabricated metal products</t>
         </is>
       </c>
-      <c r="V9" s="39" t="n"/>
-      <c r="W9" s="38" t="inlineStr">
+      <c r="V9" s="40" t="n"/>
+      <c r="W9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D26T27: Computers, electronic and electrical equipment</t>
         </is>
       </c>
-      <c r="X9" s="38" t="inlineStr">
+      <c r="X9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D26T27: Computers, electronic and electrical equipment</t>
         </is>
       </c>
-      <c r="Y9" s="39" t="n"/>
-      <c r="Z9" s="38" t="inlineStr">
+      <c r="Y9" s="40" t="n"/>
+      <c r="Z9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D28: Machinery and equipment, nec</t>
         </is>
       </c>
-      <c r="AA9" s="38" t="inlineStr">
+      <c r="AA9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D29T30: Transport equipment</t>
         </is>
       </c>
-      <c r="AB9" s="38" t="inlineStr">
+      <c r="AB9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D29T30: Transport equipment</t>
         </is>
       </c>
-      <c r="AC9" s="39" t="n"/>
-      <c r="AD9" s="38" t="inlineStr">
+      <c r="AC9" s="40" t="n"/>
+      <c r="AD9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D31T33: Other manufacturing; repair and installation of machinery and equipment</t>
         </is>
       </c>
-      <c r="AE9" s="41" t="n"/>
-      <c r="AF9" s="41" t="n"/>
-      <c r="AG9" s="41" t="n"/>
-      <c r="AH9" s="38" t="inlineStr">
+      <c r="AE9" s="51" t="n"/>
+      <c r="AF9" s="51" t="n"/>
+      <c r="AG9" s="51" t="n"/>
+      <c r="AH9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D45T56: Distributive trade, transport, accommodation and food services</t>
         </is>
       </c>
-      <c r="AI9" s="38" t="inlineStr">
+      <c r="AI9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D45T56: Distributive trade, transport, accommodation and food services</t>
         </is>
       </c>
       <c r="AJ9" s="42" t="n"/>
-      <c r="AK9" s="39" t="n"/>
-      <c r="AL9" s="38" t="inlineStr">
+      <c r="AK9" s="40" t="n"/>
+      <c r="AL9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D58T63: Information and communication</t>
         </is>
       </c>
-      <c r="AM9" s="38" t="inlineStr">
+      <c r="AM9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D58T63: Information and communication</t>
         </is>
       </c>
       <c r="AN9" s="42" t="n"/>
-      <c r="AO9" s="39" t="n"/>
-      <c r="AP9" s="38" t="inlineStr">
+      <c r="AO9" s="40" t="n"/>
+      <c r="AP9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D64T66: Financial and insurance activities</t>
         </is>
       </c>
-      <c r="AQ9" s="38" t="inlineStr">
+      <c r="AQ9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D68: Real estate activities</t>
         </is>
       </c>
-      <c r="AR9" s="38" t="inlineStr">
+      <c r="AR9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D69T82: Other business sector services</t>
         </is>
       </c>
-      <c r="AS9" s="41" t="n"/>
-      <c r="AT9" s="38" t="inlineStr">
+      <c r="AS9" s="51" t="n"/>
+      <c r="AT9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D84T88: Public admin, defence; education and health</t>
         </is>
       </c>
-      <c r="AU9" s="38" t="inlineStr">
+      <c r="AU9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D84T88: Public admin, defence; education and health</t>
         </is>
       </c>
       <c r="AV9" s="42" t="n"/>
-      <c r="AW9" s="39" t="n"/>
-      <c r="AX9" s="38" t="inlineStr">
+      <c r="AW9" s="40" t="n"/>
+      <c r="AX9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D90T98: Other social and personal services</t>
         </is>
       </c>
-      <c r="AY9" s="38" t="inlineStr">
+      <c r="AY9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D90T98: Other social and personal services</t>
         </is>
       </c>
-      <c r="AZ9" s="39" t="n"/>
-      <c r="BA9" s="41" t="n"/>
-      <c r="BB9" s="41" t="n"/>
-      <c r="BC9" s="41" t="n"/>
-      <c r="BD9" s="41" t="n"/>
-      <c r="BE9" s="41" t="n"/>
+      <c r="AZ9" s="40" t="n"/>
+      <c r="BA9" s="51" t="n"/>
+      <c r="BB9" s="51" t="n"/>
+      <c r="BC9" s="51" t="n"/>
+      <c r="BD9" s="51" t="n"/>
+      <c r="BE9" s="51" t="n"/>
     </row>
     <row r="10" ht="94.5" customHeight="1">
-      <c r="A10" s="49" t="n"/>
-      <c r="B10" s="50" t="n"/>
-      <c r="C10" s="40" t="n"/>
-      <c r="D10" s="40" t="n"/>
-      <c r="E10" s="40" t="n"/>
-      <c r="F10" s="40" t="n"/>
-      <c r="G10" s="40" t="n"/>
-      <c r="H10" s="40" t="n"/>
-      <c r="I10" s="40" t="n"/>
-      <c r="J10" s="40" t="n"/>
-      <c r="K10" s="40" t="n"/>
-      <c r="L10" s="40" t="n"/>
-      <c r="M10" s="38" t="inlineStr">
+      <c r="A10" s="48" t="n"/>
+      <c r="B10" s="49" t="n"/>
+      <c r="C10" s="52" t="n"/>
+      <c r="D10" s="52" t="n"/>
+      <c r="E10" s="52" t="n"/>
+      <c r="F10" s="52" t="n"/>
+      <c r="G10" s="52" t="n"/>
+      <c r="H10" s="52" t="n"/>
+      <c r="I10" s="52" t="n"/>
+      <c r="J10" s="52" t="n"/>
+      <c r="K10" s="52" t="n"/>
+      <c r="L10" s="52" t="n"/>
+      <c r="M10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D16: Wood and products of wood and cork</t>
         </is>
       </c>
-      <c r="N10" s="38" t="inlineStr">
+      <c r="N10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D17T18: Paper products and printing</t>
         </is>
       </c>
-      <c r="O10" s="40" t="n"/>
-      <c r="P10" s="38" t="inlineStr">
+      <c r="O10" s="52" t="n"/>
+      <c r="P10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D19: Coke and refined petroleum products</t>
         </is>
       </c>
-      <c r="Q10" s="38" t="inlineStr">
+      <c r="Q10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D20T21: Chemicals and pharmaceutical products</t>
         </is>
       </c>
-      <c r="R10" s="38" t="inlineStr">
+      <c r="R10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D22: Rubber and plastic products</t>
         </is>
       </c>
-      <c r="S10" s="38" t="inlineStr">
+      <c r="S10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D23: Other non-metallic mineral products</t>
         </is>
       </c>
-      <c r="T10" s="40" t="n"/>
-      <c r="U10" s="38" t="inlineStr">
+      <c r="T10" s="52" t="n"/>
+      <c r="U10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D24: Basic metals</t>
         </is>
       </c>
-      <c r="V10" s="38" t="inlineStr">
+      <c r="V10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D25: Fabricated metal products</t>
         </is>
       </c>
-      <c r="W10" s="40" t="n"/>
-      <c r="X10" s="38" t="inlineStr">
+      <c r="W10" s="52" t="n"/>
+      <c r="X10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D26: Computer, electronic and optical products</t>
         </is>
       </c>
-      <c r="Y10" s="38" t="inlineStr">
+      <c r="Y10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D27: Electrical equipment</t>
         </is>
       </c>
-      <c r="Z10" s="40" t="n"/>
-      <c r="AA10" s="40" t="n"/>
-      <c r="AB10" s="38" t="inlineStr">
+      <c r="Z10" s="52" t="n"/>
+      <c r="AA10" s="52" t="n"/>
+      <c r="AB10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D29: Motor vehicles, trailers and semi-trailers</t>
         </is>
       </c>
-      <c r="AC10" s="38" t="inlineStr">
+      <c r="AC10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D30: Other transport equipment</t>
         </is>
       </c>
-      <c r="AD10" s="40" t="n"/>
-      <c r="AE10" s="40" t="n"/>
-      <c r="AF10" s="40" t="n"/>
-      <c r="AG10" s="40" t="n"/>
-      <c r="AH10" s="40" t="n"/>
-      <c r="AI10" s="38" t="inlineStr">
+      <c r="AD10" s="52" t="n"/>
+      <c r="AE10" s="52" t="n"/>
+      <c r="AF10" s="52" t="n"/>
+      <c r="AG10" s="52" t="n"/>
+      <c r="AH10" s="52" t="n"/>
+      <c r="AI10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D45T47: Wholesale and retail trade; repair of motor vehicles</t>
         </is>
       </c>
-      <c r="AJ10" s="38" t="inlineStr">
+      <c r="AJ10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D49T53: Transportation and storage</t>
         </is>
       </c>
-      <c r="AK10" s="38" t="inlineStr">
+      <c r="AK10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D55T56: Accommodation and food services</t>
         </is>
       </c>
-      <c r="AL10" s="40" t="n"/>
-      <c r="AM10" s="38" t="inlineStr">
+      <c r="AL10" s="52" t="n"/>
+      <c r="AM10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D58T60: Publishing, audiovisual and broadcasting activities</t>
         </is>
       </c>
-      <c r="AN10" s="38" t="inlineStr">
+      <c r="AN10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D61: Telecommunications</t>
         </is>
       </c>
-      <c r="AO10" s="38" t="inlineStr">
+      <c r="AO10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D62T63: IT and other information services</t>
         </is>
       </c>
-      <c r="AP10" s="40" t="n"/>
-      <c r="AQ10" s="40" t="n"/>
-      <c r="AR10" s="40" t="n"/>
-      <c r="AS10" s="40" t="n"/>
-      <c r="AT10" s="40" t="n"/>
-      <c r="AU10" s="38" t="inlineStr">
+      <c r="AP10" s="52" t="n"/>
+      <c r="AQ10" s="52" t="n"/>
+      <c r="AR10" s="52" t="n"/>
+      <c r="AS10" s="52" t="n"/>
+      <c r="AT10" s="52" t="n"/>
+      <c r="AU10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D84: Public admin. and defence; compulsory social security</t>
         </is>
       </c>
-      <c r="AV10" s="38" t="inlineStr">
+      <c r="AV10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D85: Education</t>
         </is>
       </c>
-      <c r="AW10" s="38" t="inlineStr">
+      <c r="AW10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D86T88: Human health and social work</t>
         </is>
       </c>
-      <c r="AX10" s="40" t="n"/>
-      <c r="AY10" s="38" t="inlineStr">
+      <c r="AX10" s="52" t="n"/>
+      <c r="AY10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D90T96: Arts, entertainment, recreation and other service activities</t>
         </is>
       </c>
-      <c r="AZ10" s="38" t="inlineStr">
+      <c r="AZ10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D97T98: Private households with employed persons</t>
         </is>
       </c>
-      <c r="BA10" s="40" t="n"/>
-      <c r="BB10" s="40" t="n"/>
-      <c r="BC10" s="40" t="n"/>
-      <c r="BD10" s="40" t="n"/>
-      <c r="BE10" s="40" t="n"/>
+      <c r="BA10" s="52" t="n"/>
+      <c r="BB10" s="52" t="n"/>
+      <c r="BC10" s="52" t="n"/>
+      <c r="BD10" s="52" t="n"/>
+      <c r="BE10" s="52" t="n"/>
     </row>
     <row r="11" ht="13.5" customHeight="1">
       <c r="A11" s="8" t="inlineStr">
@@ -12870,12 +12870,39 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:BE3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:BE4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:BE5"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="BB8:BB10"/>
+    <mergeCell ref="BC8:BC10"/>
+    <mergeCell ref="BD8:BD10"/>
+    <mergeCell ref="BE8:BE10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AI9:AK9"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="AM9:AO9"/>
+    <mergeCell ref="BA8:BA10"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="AP9:AP10"/>
+    <mergeCell ref="AQ9:AQ10"/>
+    <mergeCell ref="AR9:AR10"/>
+    <mergeCell ref="AT9:AT10"/>
+    <mergeCell ref="AU9:AW9"/>
+    <mergeCell ref="AX9:AX10"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:BE6"/>
     <mergeCell ref="A7:B10"/>
@@ -12892,39 +12919,12 @@
     <mergeCell ref="AH8:AR8"/>
     <mergeCell ref="AS8:AS10"/>
     <mergeCell ref="AT8:AZ8"/>
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="AI9:AK9"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="AM9:AO9"/>
-    <mergeCell ref="BA8:BA10"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="AP9:AP10"/>
-    <mergeCell ref="AQ9:AQ10"/>
-    <mergeCell ref="AR9:AR10"/>
-    <mergeCell ref="AT9:AT10"/>
-    <mergeCell ref="AU9:AW9"/>
-    <mergeCell ref="AX9:AX10"/>
-    <mergeCell ref="BB8:BB10"/>
-    <mergeCell ref="BC8:BC10"/>
-    <mergeCell ref="BD8:BD10"/>
-    <mergeCell ref="BE8:BE10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:BE3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:BE4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:BE5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=TIM_2019_MAIN&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId1"/>
@@ -12959,10 +12959,10 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
     <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="10.33203125" customWidth="1" min="2" max="37"/>
+    <col width="10.31640625" customWidth="1" min="2" max="37"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -22464,11 +22464,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
     <col width="27.5" customWidth="1" min="1" max="1"/>
     <col width="2.5" customWidth="1" min="2" max="2"/>
-    <col width="14.1640625" customWidth="1" min="3" max="14"/>
+    <col width="14.1796875" customWidth="1" min="3" max="14"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -22490,13 +22490,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="52" t="inlineStr">
+      <c r="A3" s="53" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B3" s="39" t="n"/>
-      <c r="C3" s="55" t="inlineStr">
+      <c r="B3" s="40" t="n"/>
+      <c r="C3" s="56" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
@@ -22511,59 +22511,59 @@
       <c r="K3" s="42" t="n"/>
       <c r="L3" s="42" t="n"/>
       <c r="M3" s="42" t="n"/>
-      <c r="N3" s="39" t="n"/>
+      <c r="N3" s="40" t="n"/>
     </row>
     <row r="4" ht="24" customHeight="1">
-      <c r="A4" s="53" t="inlineStr">
+      <c r="A4" s="54" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B4" s="39" t="n"/>
-      <c r="C4" s="54" t="inlineStr">
+      <c r="B4" s="40" t="n"/>
+      <c r="C4" s="55" t="inlineStr">
         <is>
           <t>PROD: Production (gross output), current prices</t>
         </is>
       </c>
-      <c r="D4" s="39" t="n"/>
-      <c r="E4" s="54" t="inlineStr">
+      <c r="D4" s="40" t="n"/>
+      <c r="E4" s="55" t="inlineStr">
         <is>
           <t>VALU: Value added, current prices</t>
         </is>
       </c>
-      <c r="F4" s="39" t="n"/>
-      <c r="G4" s="54" t="inlineStr">
+      <c r="F4" s="40" t="n"/>
+      <c r="G4" s="55" t="inlineStr">
         <is>
           <t>LABR: Labour costs (compensation of employees)</t>
         </is>
       </c>
-      <c r="H4" s="39" t="n"/>
-      <c r="I4" s="54" t="inlineStr">
+      <c r="H4" s="40" t="n"/>
+      <c r="I4" s="55" t="inlineStr">
         <is>
           <t>GOPS: Gross operating surplus and mixed income</t>
         </is>
       </c>
-      <c r="J4" s="39" t="n"/>
-      <c r="K4" s="54" t="inlineStr">
+      <c r="J4" s="40" t="n"/>
+      <c r="K4" s="55" t="inlineStr">
         <is>
           <t>OTXS: Other taxes less subsidies on production</t>
         </is>
       </c>
-      <c r="L4" s="39" t="n"/>
-      <c r="M4" s="54" t="inlineStr">
+      <c r="L4" s="40" t="n"/>
+      <c r="M4" s="55" t="inlineStr">
         <is>
           <t>EMPN: Number of persons engaged (total employment)</t>
         </is>
       </c>
-      <c r="N4" s="39" t="n"/>
+      <c r="N4" s="40" t="n"/>
     </row>
     <row r="5" ht="63" customHeight="1">
-      <c r="A5" s="53" t="inlineStr">
+      <c r="A5" s="54" t="inlineStr">
         <is>
           <t>Industry</t>
         </is>
       </c>
-      <c r="B5" s="39" t="n"/>
+      <c r="B5" s="40" t="n"/>
       <c r="C5" s="18" t="inlineStr">
         <is>
           <t>D20: Chemicals and chemical products [CE]</t>
@@ -23872,10 +23872,10 @@
       <selection activeCell="AA23" sqref="AA23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
-    <col width="20.1640625" customWidth="1" min="1" max="1"/>
-    <col width="10.1640625" customWidth="1" min="2" max="39"/>
+    <col width="20.1796875" customWidth="1" min="1" max="1"/>
+    <col width="10.1796875" customWidth="1" min="2" max="39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="4">
@@ -24101,130 +24101,130 @@
         <v/>
       </c>
       <c r="B2" t="n">
-        <v>2371</v>
+        <v>342.141629648221</v>
       </c>
       <c r="C2" s="32" t="n">
-        <v>1273</v>
+        <v>900</v>
       </c>
       <c r="D2" s="33" t="n">
-        <v>0</v>
+        <v>882</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>1296</v>
+        <v>675.7029049478973</v>
       </c>
       <c r="F2" t="n">
-        <v>153</v>
+        <v>11.797987229249</v>
       </c>
       <c r="G2" t="n">
-        <v>11458</v>
+        <v>9844.884070661506</v>
       </c>
       <c r="H2" t="n">
-        <v>1885</v>
+        <v>1881.242690918431</v>
       </c>
       <c r="I2" t="n">
-        <v>1657</v>
+        <v>1137.969495475744</v>
       </c>
       <c r="J2" t="n">
-        <v>8926</v>
+        <v>8787.355397203368</v>
       </c>
       <c r="K2" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="L2" s="32" t="n">
-        <v>7592.367491166077</v>
+        <v>5856.091842881776</v>
       </c>
       <c r="M2" s="36" t="n">
-        <v>671.6325088339222</v>
+        <v>518.038893793388</v>
       </c>
       <c r="N2" t="n">
-        <v>5923</v>
+        <v>5882.905450220978</v>
       </c>
       <c r="O2" s="32" t="n">
-        <v>414.0521568627451</v>
+        <v>430.0902617208044</v>
       </c>
       <c r="P2" s="36" t="n">
-        <v>2218.947843137255</v>
+        <v>2375.685610253321</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>1164.670487106017</v>
+        <v>875.1961435515622</v>
       </c>
       <c r="R2" s="36" t="n">
-        <v>2820.329512893983</v>
+        <v>1406.105568867767</v>
       </c>
       <c r="S2" t="n">
-        <v>30740</v>
+        <v>31189.58805696008</v>
       </c>
       <c r="T2" t="n">
-        <v>11250</v>
+        <v>16791.75346010203</v>
       </c>
       <c r="U2" t="n">
-        <v>8556</v>
+        <v>7386.612549803442</v>
       </c>
       <c r="V2" t="n">
-        <v>14075</v>
+        <v>13606.2969082048</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>42714</v>
+        <v>48044.62163038263</v>
       </c>
       <c r="Y2" t="n">
-        <v>10794</v>
+        <v>10617.11596203053</v>
       </c>
       <c r="Z2" s="32" t="n">
-        <v>4307.114605344935</v>
+        <v>4215.201367308888</v>
       </c>
       <c r="AA2" s="37" t="n">
-        <v>791.6392790553139</v>
+        <v>774.7458048477315</v>
       </c>
       <c r="AB2" s="36" t="n">
-        <v>618.2461155997514</v>
+        <v>13927.24549409571</v>
       </c>
       <c r="AC2" t="n">
-        <v>115467</v>
+        <v>58663.8826810003</v>
       </c>
       <c r="AD2" t="n">
-        <v>287392</v>
+        <v>79923.855668107</v>
       </c>
       <c r="AE2" t="n">
-        <v>81108</v>
+        <v>80323</v>
       </c>
       <c r="AF2" t="n">
-        <v>144773</v>
+        <v>155734.5039703804</v>
       </c>
       <c r="AG2" t="n">
-        <v>23446</v>
+        <v>32671.84427067118</v>
       </c>
       <c r="AH2" t="n">
-        <v>9192</v>
+        <v>8573</v>
       </c>
       <c r="AI2" t="n">
-        <v>3040</v>
+        <v>3114</v>
       </c>
       <c r="AJ2" t="n">
-        <v>191822</v>
+        <v>193042</v>
       </c>
       <c r="AK2" t="n">
-        <v>123339</v>
+        <v>21759.77862790943</v>
       </c>
       <c r="AL2" t="n">
-        <v>102114</v>
+        <v>146395.860806283</v>
       </c>
       <c r="AM2" t="n">
-        <v>252591</v>
+        <v>252674</v>
       </c>
       <c r="AN2" t="n">
-        <v>88055</v>
+        <v>85250.11062996613</v>
       </c>
       <c r="AO2" t="n">
-        <v>308223</v>
+        <v>313472.520681146</v>
       </c>
       <c r="AP2" t="n">
-        <v>57403</v>
+        <v>32199.92478150122</v>
       </c>
       <c r="AQ2" t="n">
-        <v>18618</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/io-model/BEbIC/BAU Employment by ISIC Code.xlsx
+++ b/InputData/io-model/BEbIC/BAU Employment by ISIC Code.xlsx
@@ -24101,7 +24101,7 @@
         <v/>
       </c>
       <c r="B2" t="n">
-        <v>342.141629648221</v>
+        <v>340.9330328192309</v>
       </c>
       <c r="C2" s="32" t="n">
         <v>900</v>
@@ -24110,91 +24110,91 @@
         <v>882</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>675.7029049478973</v>
+        <v>673.3160209282617</v>
       </c>
       <c r="F2" t="n">
-        <v>11.797987229249</v>
+        <v>11.7563114765252</v>
       </c>
       <c r="G2" t="n">
-        <v>9844.884070661506</v>
+        <v>9810.107549365894</v>
       </c>
       <c r="H2" t="n">
-        <v>1881.242690918431</v>
+        <v>1874.597302711382</v>
       </c>
       <c r="I2" t="n">
-        <v>1137.969495475744</v>
+        <v>1133.949679690294</v>
       </c>
       <c r="J2" t="n">
-        <v>8787.355397203368</v>
+        <v>8756.314538833725</v>
       </c>
       <c r="K2" t="n">
         <v>399</v>
       </c>
       <c r="L2" s="32" t="n">
-        <v>5856.091842881776</v>
+        <v>5835.405514711601</v>
       </c>
       <c r="M2" s="36" t="n">
-        <v>518.038893793388</v>
+        <v>516.2089493783338</v>
       </c>
       <c r="N2" t="n">
-        <v>5882.905450220978</v>
+        <v>5862.124404430976</v>
       </c>
       <c r="O2" s="32" t="n">
-        <v>430.0902617208044</v>
+        <v>428.5709910987824</v>
       </c>
       <c r="P2" s="36" t="n">
-        <v>2375.685610253321</v>
+        <v>2367.293629136666</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>875.1961435515622</v>
+        <v>872.1045604404151</v>
       </c>
       <c r="R2" s="36" t="n">
-        <v>1406.105568867767</v>
+        <v>1401.138576884049</v>
       </c>
       <c r="S2" t="n">
-        <v>31189.58805696008</v>
+        <v>31079.41252157753</v>
       </c>
       <c r="T2" t="n">
-        <v>16791.75346010203</v>
+        <v>16732.43749786169</v>
       </c>
       <c r="U2" t="n">
-        <v>7386.612549803442</v>
+        <v>7360.519739893552</v>
       </c>
       <c r="V2" t="n">
-        <v>13606.2969082048</v>
+        <v>13558.23339919988</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>48044.62163038263</v>
+        <v>47874.90659917695</v>
       </c>
       <c r="Y2" t="n">
-        <v>10617.11596203053</v>
+        <v>10579.61157328391</v>
       </c>
       <c r="Z2" s="32" t="n">
-        <v>4215.201367308888</v>
+        <v>4145.12834616795</v>
       </c>
       <c r="AA2" s="37" t="n">
-        <v>774.7458048477315</v>
+        <v>854.8771543821048</v>
       </c>
       <c r="AB2" s="36" t="n">
-        <v>13927.24549409571</v>
+        <v>13695.72057205721</v>
       </c>
       <c r="AC2" t="n">
-        <v>58663.8826810003</v>
+        <v>58456.6556836384</v>
       </c>
       <c r="AD2" t="n">
-        <v>79923.855668107</v>
+        <v>79641.52896433682</v>
       </c>
       <c r="AE2" t="n">
         <v>80323</v>
       </c>
       <c r="AF2" t="n">
-        <v>155734.5039703804</v>
+        <v>155184.3802457215</v>
       </c>
       <c r="AG2" t="n">
-        <v>32671.84427067118</v>
+        <v>32556.43274526461</v>
       </c>
       <c r="AH2" t="n">
         <v>8573</v>
@@ -24206,22 +24206,22 @@
         <v>193042</v>
       </c>
       <c r="AK2" t="n">
-        <v>21759.77862790943</v>
+        <v>21682.91338506758</v>
       </c>
       <c r="AL2" t="n">
-        <v>146395.860806283</v>
+        <v>145878.7253342574</v>
       </c>
       <c r="AM2" t="n">
         <v>252674</v>
       </c>
       <c r="AN2" t="n">
-        <v>85250.11062996613</v>
+        <v>90575</v>
       </c>
       <c r="AO2" t="n">
-        <v>313472.520681146</v>
+        <v>311169</v>
       </c>
       <c r="AP2" t="n">
-        <v>32199.92478150122</v>
+        <v>32086.1802862036</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>

--- a/InputData/io-model/BEbIC/BAU Employment by ISIC Code.xlsx
+++ b/InputData/io-model/BEbIC/BAU Employment by ISIC Code.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="9765" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -1085,7 +1085,7 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="77.5" customWidth="1" min="2" max="2"/>
   </cols>
@@ -1094,6 +1094,11 @@
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>BEbIC BAU Employment by ISIC Code</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Connecticut</t>
         </is>
       </c>
       <c r="C1" s="38" t="n">
@@ -1256,18 +1261,18 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col width="27.5" customWidth="1" style="6" min="1" max="1"/>
     <col width="2.5" customWidth="1" style="6" min="2" max="2"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
-    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="4" max="53"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="4" max="53"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="54" max="54"/>
-    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="55" max="55"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="55" max="55"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="56" max="56"/>
-    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="57" max="57"/>
-    <col width="9.1796875" customWidth="1" style="6" min="58" max="61"/>
-    <col width="9.1796875" customWidth="1" style="6" min="62" max="16384"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="57" max="57"/>
+    <col width="9.1640625" customWidth="1" style="6" min="58" max="61"/>
+    <col width="9.1640625" customWidth="1" style="6" min="62" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -12959,10 +12964,10 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="10.31640625" customWidth="1" min="2" max="37"/>
+    <col width="10.33203125" customWidth="1" min="2" max="37"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -22464,11 +22469,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="27.5" customWidth="1" min="1" max="1"/>
     <col width="2.5" customWidth="1" min="2" max="2"/>
-    <col width="14.1796875" customWidth="1" min="3" max="14"/>
+    <col width="14.1640625" customWidth="1" min="3" max="14"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -23872,10 +23877,10 @@
       <selection activeCell="AA23" sqref="AA23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="20.1796875" customWidth="1" min="1" max="1"/>
-    <col width="10.1796875" customWidth="1" min="2" max="39"/>
+    <col width="20.1640625" customWidth="1" min="1" max="1"/>
+    <col width="10.1640625" customWidth="1" min="2" max="39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="4">
@@ -24101,127 +24106,127 @@
         <v/>
       </c>
       <c r="B2" t="n">
-        <v>340.9330328192309</v>
+        <v>343.0582490208495</v>
       </c>
       <c r="C2" s="32" t="n">
-        <v>900</v>
+        <v>1273</v>
       </c>
       <c r="D2" s="33" t="n">
-        <v>882</v>
+        <v>1296</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>673.3160209282617</v>
+        <v>677.5131563734644</v>
       </c>
       <c r="F2" t="n">
-        <v>11.7563114765252</v>
+        <v>11.82959479382239</v>
       </c>
       <c r="G2" t="n">
-        <v>9810.107549365894</v>
+        <v>9871.259146590524</v>
       </c>
       <c r="H2" t="n">
-        <v>1874.597302711382</v>
+        <v>1886.282660760407</v>
       </c>
       <c r="I2" t="n">
-        <v>1133.949679690294</v>
+        <v>1141.018188749596</v>
       </c>
       <c r="J2" t="n">
-        <v>8756.314538833725</v>
+        <v>8810.897285980625</v>
       </c>
       <c r="K2" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L2" s="32" t="n">
-        <v>5835.405514711601</v>
+        <v>5871.780688570025</v>
       </c>
       <c r="M2" s="36" t="n">
-        <v>516.2089493783338</v>
+        <v>519.4267532196561</v>
       </c>
       <c r="N2" t="n">
-        <v>5862.124404430976</v>
+        <v>5898.666131283258</v>
       </c>
       <c r="O2" s="32" t="n">
-        <v>428.5709910987824</v>
+        <v>431.2425011202528</v>
       </c>
       <c r="P2" s="36" t="n">
-        <v>2367.293629136666</v>
+        <v>2382.050224392418</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>872.1045604404151</v>
+        <v>877.5408501599159</v>
       </c>
       <c r="R2" s="36" t="n">
-        <v>1401.138576884049</v>
+        <v>1409.872615881924</v>
       </c>
       <c r="S2" t="n">
-        <v>31079.41252157753</v>
+        <v>31273.14696403229</v>
       </c>
       <c r="T2" t="n">
-        <v>16732.43749786169</v>
+        <v>16836.73964473485</v>
       </c>
       <c r="U2" t="n">
-        <v>7360.519739893552</v>
+        <v>7406.401758641348</v>
       </c>
       <c r="V2" t="n">
-        <v>13558.23339919988</v>
+        <v>13642.74905040281</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>47874.90659917695</v>
+        <v>48173.33625357038</v>
       </c>
       <c r="Y2" t="n">
-        <v>10579.61157328391</v>
+        <v>10645.55989673163</v>
       </c>
       <c r="Z2" s="32" t="n">
-        <v>4145.12834616795</v>
+        <v>4235.513629140692</v>
       </c>
       <c r="AA2" s="37" t="n">
-        <v>854.8771543821048</v>
+        <v>873.5179073462901</v>
       </c>
       <c r="AB2" s="36" t="n">
-        <v>13695.72057205721</v>
+        <v>13794.30143014301</v>
       </c>
       <c r="AC2" t="n">
-        <v>58456.6556836384</v>
+        <v>58821.04698571906</v>
       </c>
       <c r="AD2" t="n">
-        <v>79641.52896433682</v>
+        <v>80137.97680418703</v>
       </c>
       <c r="AE2" t="n">
-        <v>80323</v>
+        <v>81108</v>
       </c>
       <c r="AF2" t="n">
-        <v>155184.3802457215</v>
+        <v>156151.7266961641</v>
       </c>
       <c r="AG2" t="n">
-        <v>32556.43274526461</v>
+        <v>32759.3742372198</v>
       </c>
       <c r="AH2" t="n">
-        <v>8573</v>
+        <v>9192</v>
       </c>
       <c r="AI2" t="n">
-        <v>3114</v>
+        <v>3040</v>
       </c>
       <c r="AJ2" t="n">
-        <v>193042</v>
+        <v>191822</v>
       </c>
       <c r="AK2" t="n">
-        <v>21682.91338506758</v>
+        <v>21818.07447064261</v>
       </c>
       <c r="AL2" t="n">
-        <v>145878.7253342574</v>
+        <v>146788.0647079994</v>
       </c>
       <c r="AM2" t="n">
-        <v>252674</v>
+        <v>252591</v>
       </c>
       <c r="AN2" t="n">
-        <v>90575</v>
+        <v>88055</v>
       </c>
       <c r="AO2" t="n">
-        <v>311169</v>
+        <v>308223</v>
       </c>
       <c r="AP2" t="n">
-        <v>32086.1802862036</v>
+        <v>32286.1904454669</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>
